--- a/temp_data/黄炫铭/番剧数据_黄炫铭.xlsx
+++ b/temp_data/黄炫铭/番剧数据_黄炫铭.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D520780-BD1F-4F16-9033-768C1A2664D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>番剧名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,12 +159,102 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>斗罗大陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐门外门弟子唐三，因偷学内门绝学为唐门所不容，跳崖明志时却发现没有死，反而以另外一个身份来到了另一个世界，一个属于武魂的世界，名叫斗罗大陆。这里没有魔法，没有斗气，没有武术，却有神奇的武魂。这里的每个人，在自己六岁的时候，都会在武魂殿中令武魂觉醒。武魂有动物，有植物，有器物，武魂可以辅助人们的日常生活。而其中一些特别出色的武魂却可以用来修炼并进行战斗，这个职业，是斗罗大陆上最为强大也是最荣耀的职业“魂师”。 小小的唐三在圣魂村开始了他的魂师修炼之路，并萌生了振兴唐门的梦想。当唐门暗器来到斗罗大陆，当唐三武魂觉醒，他能否在这片武魂的世界再铸唐门的辉煌？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等了一年多 总算动漫化了，品质特别棒，难怪斗破要换制作方了。而且，吃狗粮不生气哈哈哈哈哈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科幻/热血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://v.qq.com/x/cover/m441e3rjq9kwpsc.htmll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如迢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书灵记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀛洲界内，诸子百家，唐诗宋词，皆有书灵。在《唐诗三百首》中醒来的书灵顾七绝，骑着《山海经》的神兽驳， 与为了养活自己和一群妹子而努力奋斗的乐五音一起踏上了一条寻找唤醒其他书灵的道路。</t>
+  </si>
+  <si>
+    <t>科幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国漫必须支持支持支持！重要的说三遍。</t>
+  </si>
+  <si>
+    <t>https://v.qq.com/x/cover/mzc00200b1plp0l.html</t>
+  </si>
+  <si>
+    <t>一人之下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个世界是存在异人的。刚刚接触异人世界的张楚岚，加入了管理异人的组织“哪都通”。为了解开爷爷和自身的秘密，张楚岚和冯宝宝一起前往龙虎山天师府参加异人界的盛会——罗天大醮，并与众多异人高手对战。</t>
+  </si>
+  <si>
+    <t>https://v.qq.com/x/cover/3enwc74hj562xjd/m0568miozpj.html</t>
+  </si>
+  <si>
+    <t>时长应该说是国产动漫中最长的吧。所以很满足，必须支持。而且四川话加分哈哈哈哈哈哈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血/搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国经典动画-黑猫警长，陪伴童年的超喜欢的国产动画！ 不足100分钟的总片长，捧红了三个“腕儿”，英姿飒爽的黑猫警长，壮烈牺牲的白猫班长以及笨笨的坏蛋“一只耳”。当年被指带点“洋”味的旧作已征服了观众和社会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动漫化的动物世界里，要说被塑造形象及个性最丰富的物种，应该是非“猫”莫属了。美国有慵懒搞怪的加菲猫，日本有八宝哆啦A梦+可爱教主 HelloKitty ，我们也有当之无愧的中国第一“猫”——《黑猫警长》。能位居榜首，自然有不可替代的强势理由。此剧仅凭 5 集的内容便在电视荧屏上纵横了25年并经久不衰；图书市场上，时至今日，父母为子女选购的第一批卡通读物也必然有它的身影。</t>
+  </si>
+  <si>
+    <t>https://v.qq.com/x/cover/ax6cm81c0gcsqs2.html</t>
+  </si>
+  <si>
+    <t>黑猫警长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小和尚一禅和师父的日常生活。观众能够从中领悟人生的道理，体会身处尘世的芸芸众生的喜怒哀乐、怨憎会、爱别离与求不得。</t>
+  </si>
+  <si>
+    <t>短，但句句经典。超喜欢。</t>
+  </si>
+  <si>
+    <t>治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://v.qq.com/x/cover/ij4yjidgfnw346d/w0357ptsfjx.html</t>
+  </si>
+  <si>
+    <t>一禅小和尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +286,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,15 +318,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -237,8 +340,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,84 +619,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,72 +728,163 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
+        <v>500</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1">
+        <v>999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>88</v>
+      </c>
+      <c r="I11" s="1">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{0EC7B0D2-F734-4FDB-820F-F92BCDAE4513}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>